--- a/Work Plan and Task Breakdown.xlsx
+++ b/Work Plan and Task Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CureUniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BFC05-3BCF-45CE-8E8E-39365D40DD00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B39FC-1E34-4F44-97B8-FE9DDD4FAE50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{CA06B390-A52D-437A-980B-D056BC637CE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="81">
   <si>
     <t>Cure University</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>YES NO AND OKAY</t>
+  </si>
+  <si>
+    <t>Partial needs to be done side by side</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -334,6 +343,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939D964-A973-405E-8CB0-E30FD15B986D}">
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -672,22 +686,28 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="G3" s="1"/>
       <c r="R3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>2.5</v>
       </c>
       <c r="G4" s="1"/>
@@ -696,19 +716,25 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
@@ -717,69 +743,88 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.5</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>1.5</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="M13" s="6"/>
@@ -788,34 +833,50 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>0.75</v>
       </c>
+      <c r="M14" s="8"/>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E17">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -991,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>27</v>
       </c>
@@ -1010,12 +1071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -1026,7 +1087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -1034,12 +1095,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>10</v>
       </c>
@@ -1066,36 +1127,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1184,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>

--- a/Work Plan and Task Breakdown.xlsx
+++ b/Work Plan and Task Breakdown.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CureUniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B39FC-1E34-4F44-97B8-FE9DDD4FAE50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AB24F-7517-4011-9497-47DBE0E63F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{CA06B390-A52D-437A-980B-D056BC637CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
   <si>
     <t>Cure University</t>
   </si>
@@ -268,6 +269,12 @@
   </si>
   <si>
     <t>Partial needs to be done side by side</t>
+  </si>
+  <si>
+    <t>Today's Tasks</t>
+  </si>
+  <si>
+    <t>SP View all Students</t>
   </si>
 </sst>
 </file>
@@ -298,7 +305,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +324,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -330,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -346,6 +359,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -664,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939D964-A973-405E-8CB0-E30FD15B986D}">
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -674,6 +693,7 @@
     <col min="2" max="2" width="26.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -880,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -891,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>2</v>
@@ -904,7 +924,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -915,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
@@ -926,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
@@ -937,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>50</v>
@@ -950,7 +970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -961,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>8</v>
@@ -975,7 +995,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -987,7 +1007,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
@@ -999,7 +1019,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>12</v>
@@ -1013,7 +1033,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
@@ -1025,7 +1045,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1035,7 +1055,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1044,12 +1064,16 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12">
+        <v>43872</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1518,26 +1542,35 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E89">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E91">
+      <c r="D91" s="11"/>
+      <c r="E91" s="11">
         <v>0</v>
       </c>
       <c r="G91">
@@ -1838,31 +1871,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="11">
         <v>0.75</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
         <v>60</v>
       </c>
@@ -1870,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>2</v>
       </c>
@@ -1881,7 +1923,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>43</v>
       </c>
@@ -1889,12 +1931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +1947,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>9</v>
       </c>
@@ -1913,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>10</v>
       </c>
@@ -1921,36 +1963,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="11">
         <v>0.25</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D141" s="11"/>
+      <c r="E141" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
@@ -1958,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>2</v>
       </c>
@@ -2088,12 +2135,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>9</v>
       </c>
@@ -2112,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>10</v>
       </c>
@@ -2120,36 +2167,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D167" s="11"/>
+      <c r="E167" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
         <v>56</v>
       </c>
@@ -2157,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>2</v>
       </c>
@@ -2165,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>54</v>
       </c>
@@ -2176,12 +2228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>8</v>
       </c>
@@ -2192,7 +2244,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>10</v>
       </c>
@@ -2208,27 +2260,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E176">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C177" t="s">
+      <c r="A177" s="13"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C178" t="s">
-        <v>55</v>
-      </c>
-      <c r="E178">
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2289,29 +2346,37 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C186" t="s">
+      <c r="A186" s="13"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
+      <c r="A187" s="13"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E187">
+      <c r="D187" s="11"/>
+      <c r="E187" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C188" t="s">
+      <c r="A188" s="13"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E188">
+      <c r="D188" s="11"/>
+      <c r="E188" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2380,4 +2445,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD250C25-BD9E-43F7-826D-4B3FFD0E83C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Work Plan and Task Breakdown.xlsx
+++ b/Work Plan and Task Breakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CureUniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AB24F-7517-4011-9497-47DBE0E63F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D540F2-A74E-4659-B00C-8243EACCC84C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{CA06B390-A52D-437A-980B-D056BC637CE4}"/>
   </bookViews>
@@ -305,7 +305,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +330,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -367,6 +373,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939D964-A973-405E-8CB0-E30FD15B986D}">
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1087,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -1087,20 +1098,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N34" s="17"/>
+      <c r="O34" s="12">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>50</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -1119,12 +1134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -1160,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
@@ -1173,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
@@ -1184,12 +1199,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>31</v>
       </c>
@@ -1216,12 +1231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>50</v>
       </c>
@@ -1236,7 +1251,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>47</v>
       </c>
@@ -1244,12 +1259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>10</v>
       </c>
@@ -1276,12 +1291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>12</v>
       </c>
@@ -1292,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>33</v>
       </c>
@@ -1303,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>34</v>
       </c>
@@ -1311,116 +1326,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="17">
         <v>0.75</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
+      <c r="D68" s="17"/>
+      <c r="E68" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+      <c r="D69" s="17"/>
+      <c r="E69" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>38</v>
       </c>
@@ -1428,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>2</v>
       </c>
@@ -1439,7 +1489,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>42</v>
       </c>
@@ -1447,12 +1497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>39</v>
       </c>
@@ -1460,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>40</v>
       </c>
@@ -1472,7 +1522,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>0</v>
       </c>
